--- a/data/trans_camb/POLIPATOLOGIA-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 12,62</t>
+          <t>-0,73; 13,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 18,6</t>
+          <t>4,77; 18,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 23,38</t>
+          <t>7,94; 23,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 15,83</t>
+          <t>2,58; 15,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 16,32</t>
+          <t>5,64; 16,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 15,42</t>
+          <t>5,46; 15,18</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 82,93</t>
+          <t>-4,46; 87,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 118,9</t>
+          <t>21,41; 126,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 109,95</t>
+          <t>25,7; 109,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 75,37</t>
+          <t>9,0; 74,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,76; 84,86</t>
+          <t>22,49; 86,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,22; 78,83</t>
+          <t>22,35; 80,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 8,47</t>
+          <t>-2,64; 8,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 8,52</t>
+          <t>-1,02; 9,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 14,43</t>
+          <t>2,83; 14,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,27</t>
+          <t>-11,77; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 1,29</t>
+          <t>-10,68; 0,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 5,22</t>
+          <t>-6,28; 5,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,18</t>
+          <t>-5,4; 2,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,75</t>
+          <t>-4,77; 3,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,43</t>
+          <t>0,11; 8,51</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 53,07</t>
+          <t>-12,5; 50,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 53,08</t>
+          <t>-4,99; 61,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 89,38</t>
+          <t>14,45; 92,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 0,77</t>
+          <t>-27,27; 2,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 3,07</t>
+          <t>-25,27; 2,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 14,04</t>
+          <t>-14,35; 14,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 11,68</t>
+          <t>-17,06; 10,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 13,41</t>
+          <t>-15,18; 12,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 30,59</t>
+          <t>0,38; 31,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 17,45</t>
+          <t>4,29; 17,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 8,74</t>
+          <t>-3,06; 7,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,34; 26,49</t>
+          <t>12,85; 26,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 13,21</t>
+          <t>-1,96; 13,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 7,96</t>
+          <t>-5,73; 7,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,37; 23,29</t>
+          <t>9,51; 22,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 13,84</t>
+          <t>3,67; 13,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,08</t>
+          <t>-2,96; 6,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,16; 23,2</t>
+          <t>13,68; 22,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 128,14</t>
+          <t>21,31; 134,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 68,13</t>
+          <t>-16,44; 58,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,32; 206,84</t>
+          <t>62,73; 189,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 48,25</t>
+          <t>-5,97; 46,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 28,76</t>
+          <t>-16,69; 30,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,78; 86,03</t>
+          <t>27,26; 85,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,68; 64,4</t>
+          <t>13,7; 61,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 33,29</t>
+          <t>-11,74; 30,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,95; 110,25</t>
+          <t>52,22; 107,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 8,46</t>
+          <t>-3,1; 7,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 14,82</t>
+          <t>0,9; 14,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,91; 23,74</t>
+          <t>7,85; 23,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 18,04</t>
+          <t>6,36; 18,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 19,43</t>
+          <t>5,34; 19,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 26,37</t>
+          <t>11,14; 27,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 11,48</t>
+          <t>3,01; 11,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 14,8</t>
+          <t>5,9; 14,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,62; 23,58</t>
+          <t>12,94; 23,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 48,64</t>
+          <t>-13,26; 43,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,78; 82,92</t>
+          <t>2,5; 79,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,61; 132,18</t>
+          <t>31,32; 129,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,3; 66,49</t>
+          <t>18,35; 69,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,76; 70,23</t>
+          <t>14,63; 68,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,01; 95,65</t>
+          <t>32,96; 99,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,18; 49,03</t>
+          <t>10,79; 48,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,27; 62,24</t>
+          <t>21,02; 64,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,26; 100,49</t>
+          <t>44,9; 101,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,56; 24,09</t>
+          <t>8,27; 24,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 17,2</t>
+          <t>3,24; 17,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,97; 27,76</t>
+          <t>12,93; 27,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,26; 37,45</t>
+          <t>18,76; 37,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 19,26</t>
+          <t>0,13; 18,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,57; 26,65</t>
+          <t>0,88; 26,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,24; 28,24</t>
+          <t>14,96; 28,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,1; 16,06</t>
+          <t>3,66; 16,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,83; 26,38</t>
+          <t>11,48; 25,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>46,38; 241,74</t>
+          <t>49,37; 248,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,56; 195,27</t>
+          <t>17,0; 199,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>69,82; 294,46</t>
+          <t>76,97; 302,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>55,72; 154,66</t>
+          <t>51,61; 147,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,29; 77,79</t>
+          <t>1,01; 77,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,64; 103,13</t>
+          <t>5,7; 103,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>59,88; 153,44</t>
+          <t>61,55; 151,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,39; 88,1</t>
+          <t>14,79; 88,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>51,45; 145,53</t>
+          <t>50,37; 133,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,92; 21,33</t>
+          <t>7,12; 21,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 12,27</t>
+          <t>-0,98; 12,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,25; 32,7</t>
+          <t>18,42; 32,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,84; 17,6</t>
+          <t>1,67; 18,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 7,16</t>
+          <t>-9,68; 6,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,46; 20,86</t>
+          <t>5,94; 21,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,51</t>
+          <t>7,27; 18,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,92</t>
+          <t>-2,89; 7,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,32; 24,35</t>
+          <t>14,36; 24,64</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,37; 143,91</t>
+          <t>32,41; 147,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 85,31</t>
+          <t>-4,63; 82,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>79,56; 219,75</t>
+          <t>81,76; 219,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,72; 55,75</t>
+          <t>4,51; 58,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 22,39</t>
+          <t>-24,52; 22,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,28; 66,98</t>
+          <t>15,29; 68,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,45; 72,39</t>
+          <t>23,61; 71,89</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 32,4</t>
+          <t>-10,0; 32,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>47,55; 100,82</t>
+          <t>47,53; 101,7</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,4; 12,36</t>
+          <t>2,35; 12,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,94</t>
+          <t>-1,99; 7,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,73; 26,73</t>
+          <t>16,05; 26,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,34; 15,42</t>
+          <t>5,03; 15,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 7,54</t>
+          <t>-2,46; 8,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>30,14; 50,08</t>
+          <t>30,61; 52,86</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,27</t>
+          <t>5,1; 12,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,04</t>
+          <t>-1,0; 6,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>25,61; 42,34</t>
+          <t>25,52; 41,42</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11,65; 73,61</t>
+          <t>10,35; 72,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 39,97</t>
+          <t>-9,79; 40,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>73,68; 156,67</t>
+          <t>75,33; 158,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13,22; 56,86</t>
+          <t>15,69; 57,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 27,96</t>
+          <t>-7,87; 32,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>94,07; 184,65</t>
+          <t>96,42; 188,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,38; 54,87</t>
+          <t>19,4; 55,02</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 26,1</t>
+          <t>-3,66; 26,82</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>97,9; 175,69</t>
+          <t>96,92; 176,25</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -1,42</t>
+          <t>-9,76; -0,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 6,05</t>
+          <t>-2,8; 6,04</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 5,48</t>
+          <t>-5,06; 5,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -2,6</t>
+          <t>-12,11; -2,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,22</t>
+          <t>-6,77; 3,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,74</t>
+          <t>-5,2; 4,66</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -3,06</t>
+          <t>-9,7; -3,07</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,03</t>
+          <t>-3,78; 3,16</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,88</t>
+          <t>-3,46; 3,64</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-37,24; -6,06</t>
+          <t>-35,62; -3,95</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 26,36</t>
+          <t>-10,41; 26,99</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 23,47</t>
+          <t>-18,59; 22,3</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -7,65</t>
+          <t>-30,56; -6,89</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 9,46</t>
+          <t>-17,19; 9,32</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 13,62</t>
+          <t>-13,06; 13,53</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,25; -10,19</t>
+          <t>-29,43; -10,33</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 10,29</t>
+          <t>-11,28; 10,34</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 13,19</t>
+          <t>-10,72; 12,24</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>2,6; 6,63</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,13</t>
+          <t>2,09; 6,15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,43</t>
+          <t>10,57; 15,53</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,43</t>
+          <t>3,03; 7,67</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,94</t>
+          <t>0,37; 5,06</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,69</t>
+          <t>11,63; 19,46</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,49</t>
+          <t>3,28; 6,57</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,94</t>
+          <t>1,76; 4,95</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>12,0; 16,81</t>
+          <t>12,11; 17,36</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>10,63; 34,53</t>
+          <t>12,22; 34,83</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>9,23; 32,23</t>
+          <t>10,12; 32,62</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>51,22; 82,18</t>
+          <t>50,25; 81,9</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,34; 23,05</t>
+          <t>8,71; 23,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,22; 15,09</t>
+          <t>0,97; 15,59</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>33,23; 58,64</t>
+          <t>33,34; 58,53</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>11,78; 24,8</t>
+          <t>11,9; 25,3</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,93; 19,13</t>
+          <t>6,23; 18,97</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>43,75; 63,74</t>
+          <t>44,16; 66,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 13,28</t>
+          <t>-0,83; 13,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 18,9</t>
+          <t>4,61; 18,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 23,99</t>
+          <t>7,47; 23,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 15,8</t>
+          <t>1,55; 14,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 16,48</t>
+          <t>5,79; 16,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 15,18</t>
+          <t>5,66; 15,46</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 87,16</t>
+          <t>-3,02; 89,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,41; 126,09</t>
+          <t>20,26; 126,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,7; 109,75</t>
+          <t>23,99; 112,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 74,52</t>
+          <t>4,75; 65,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 86,02</t>
+          <t>22,92; 81,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,35; 80,1</t>
+          <t>22,37; 79,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,18</t>
+          <t>-2,33; 7,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,09</t>
+          <t>-1,23; 8,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 14,26</t>
+          <t>2,45; 14,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 0,96</t>
+          <t>-12,1; 0,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 0,92</t>
+          <t>-10,48; 0,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 5,46</t>
+          <t>-6,06; 5,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,75</t>
+          <t>-5,49; 2,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,45</t>
+          <t>-4,7; 3,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 8,51</t>
+          <t>-0,07; 8,19</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 50,94</t>
+          <t>-11,47; 52,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 61,21</t>
+          <t>-6,29; 53,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 92,93</t>
+          <t>11,35; 91,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 2,37</t>
+          <t>-28,37; 0,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 2,41</t>
+          <t>-24,61; 2,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 14,43</t>
+          <t>-13,85; 15,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 10,16</t>
+          <t>-17,13; 9,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 12,59</t>
+          <t>-15,1; 12,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 31,14</t>
+          <t>-0,33; 30,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 17,95</t>
+          <t>5,35; 17,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 7,96</t>
+          <t>-3,37; 8,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,85; 26,19</t>
+          <t>13,12; 25,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 13,09</t>
+          <t>-1,34; 13,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 7,88</t>
+          <t>-5,93; 8,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 22,66</t>
+          <t>9,81; 22,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 13,72</t>
+          <t>3,28; 13,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 6,63</t>
+          <t>-3,25; 6,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,68; 22,93</t>
+          <t>13,67; 23,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,31; 134,38</t>
+          <t>25,32; 128,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 58,63</t>
+          <t>-16,49; 62,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>62,73; 189,73</t>
+          <t>65,37; 185,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 46,96</t>
+          <t>-4,29; 49,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 30,1</t>
+          <t>-17,82; 30,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,26; 85,06</t>
+          <t>28,29; 84,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 61,77</t>
+          <t>12,23; 64,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 30,74</t>
+          <t>-12,55; 30,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,22; 107,56</t>
+          <t>51,67; 111,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 7,63</t>
+          <t>-3,43; 7,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 14,11</t>
+          <t>1,84; 14,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,85; 23,0</t>
+          <t>7,97; 23,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 18,59</t>
+          <t>5,95; 18,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 19,25</t>
+          <t>5,67; 19,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,14; 27,03</t>
+          <t>11,83; 27,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,43</t>
+          <t>3,59; 11,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,78</t>
+          <t>5,57; 14,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,94; 23,7</t>
+          <t>12,68; 23,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 43,82</t>
+          <t>-13,91; 44,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 79,02</t>
+          <t>6,78; 82,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,32; 129,14</t>
+          <t>32,11; 133,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,35; 69,66</t>
+          <t>16,45; 68,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,63; 68,9</t>
+          <t>16,59; 72,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,96; 99,75</t>
+          <t>33,82; 98,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,79; 48,06</t>
+          <t>12,85; 51,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,02; 64,49</t>
+          <t>20,2; 62,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,9; 101,89</t>
+          <t>43,29; 100,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,27; 24,09</t>
+          <t>7,46; 23,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 17,77</t>
+          <t>3,05; 17,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,93; 27,97</t>
+          <t>12,83; 28,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,76; 37,36</t>
+          <t>19,24; 37,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 18,83</t>
+          <t>-0,13; 19,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,88; 26,39</t>
+          <t>2,86; 26,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,96; 28,49</t>
+          <t>16,05; 28,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 16,44</t>
+          <t>4,17; 16,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,48; 25,68</t>
+          <t>12,3; 26,61</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,37; 248,6</t>
+          <t>43,5; 245,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,0; 199,23</t>
+          <t>15,03; 174,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>76,97; 302,89</t>
+          <t>78,54; 316,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>51,61; 147,23</t>
+          <t>53,61; 153,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,01; 77,16</t>
+          <t>-0,27; 76,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,7; 103,58</t>
+          <t>9,56; 102,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>61,55; 151,19</t>
+          <t>64,69; 158,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,79; 88,58</t>
+          <t>16,67; 87,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>50,37; 133,65</t>
+          <t>51,47; 147,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,12; 21,71</t>
+          <t>6,7; 21,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 12,7</t>
+          <t>-1,17; 12,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,42; 32,88</t>
+          <t>18,18; 32,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,67; 18,12</t>
+          <t>2,12; 18,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 6,83</t>
+          <t>-8,82; 7,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,94; 21,0</t>
+          <t>5,8; 20,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,27; 18,05</t>
+          <t>6,9; 17,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 7,95</t>
+          <t>-3,22; 7,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,36; 24,64</t>
+          <t>14,33; 24,5</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>32,41; 147,7</t>
+          <t>29,96; 140,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 82,97</t>
+          <t>-5,48; 82,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>81,76; 219,57</t>
+          <t>82,0; 216,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,51; 58,89</t>
+          <t>5,55; 59,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 22,28</t>
+          <t>-23,04; 23,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,29; 68,89</t>
+          <t>13,88; 67,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,61; 71,89</t>
+          <t>22,77; 71,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 32,79</t>
+          <t>-10,97; 29,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>47,53; 101,7</t>
+          <t>47,37; 100,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,33</t>
+          <t>2,93; 12,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 7,09</t>
+          <t>-2,31; 6,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16,05; 26,71</t>
+          <t>16,08; 26,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,03; 15,62</t>
+          <t>4,75; 15,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 8,62</t>
+          <t>-2,36; 8,41</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>30,61; 52,86</t>
+          <t>30,56; 51,87</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,58</t>
+          <t>4,77; 12,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,06</t>
+          <t>-1,22; 6,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>25,52; 41,42</t>
+          <t>25,75; 41,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>10,35; 72,58</t>
+          <t>12,85; 72,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 40,29</t>
+          <t>-10,66; 38,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>75,33; 158,98</t>
+          <t>72,1; 151,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,69; 57,98</t>
+          <t>14,98; 56,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 32,69</t>
+          <t>-7,29; 31,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>96,42; 188,92</t>
+          <t>95,87; 181,3</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,4; 55,02</t>
+          <t>18,12; 55,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 26,82</t>
+          <t>-4,63; 27,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>96,92; 176,25</t>
+          <t>99,71; 176,52</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -0,84</t>
+          <t>-10,31; -1,71</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,04</t>
+          <t>-2,87; 5,92</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,25</t>
+          <t>-5,33; 5,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -2,4</t>
+          <t>-11,96; -2,57</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 3,19</t>
+          <t>-6,65; 3,01</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 4,66</t>
+          <t>-4,33; 5,12</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -3,07</t>
+          <t>-9,36; -3,05</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,16</t>
+          <t>-3,33; 3,2</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,64</t>
+          <t>-3,36; 3,74</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-35,62; -3,95</t>
+          <t>-37,28; -6,79</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 26,99</t>
+          <t>-11,16; 25,01</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 22,3</t>
+          <t>-19,26; 22,82</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-30,56; -6,89</t>
+          <t>-30,26; -7,62</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 9,32</t>
+          <t>-16,52; 8,93</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 13,53</t>
+          <t>-10,96; 14,78</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-29,43; -10,33</t>
+          <t>-28,78; -10,57</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 10,34</t>
+          <t>-10,25; 10,81</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 12,24</t>
+          <t>-10,07; 12,65</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,63</t>
+          <t>2,44; 6,62</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,15</t>
+          <t>2,03; 6,09</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>10,57; 15,53</t>
+          <t>10,76; 15,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,67</t>
+          <t>2,72; 7,61</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,06</t>
+          <t>0,15; 4,89</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>11,63; 19,46</t>
+          <t>11,45; 19,1</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,57</t>
+          <t>3,33; 6,45</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,95</t>
+          <t>1,83; 4,98</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,36</t>
+          <t>12,12; 17,73</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>12,22; 34,83</t>
+          <t>11,76; 35,34</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10,12; 32,62</t>
+          <t>9,84; 32,47</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>50,25; 81,9</t>
+          <t>51,91; 82,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,71; 23,53</t>
+          <t>7,63; 23,28</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,97; 15,59</t>
+          <t>0,34; 15,19</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>33,34; 58,53</t>
+          <t>33,02; 58,52</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>11,9; 25,3</t>
+          <t>12,23; 25,14</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,23; 18,97</t>
+          <t>6,71; 19,34</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>44,16; 66,55</t>
+          <t>44,0; 66,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 13,41</t>
+          <t>-0,24; 12,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 18,57</t>
+          <t>4,61; 18,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 23,82</t>
+          <t>7,24; 23,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,85</t>
+          <t>1,89; 15,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 16,04</t>
+          <t>5,69; 16,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 15,46</t>
+          <t>5,29; 15,42</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 89,39</t>
+          <t>-1,36; 82,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,26; 126,35</t>
+          <t>22,38; 118,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,99; 112,2</t>
+          <t>24,95; 109,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 65,23</t>
+          <t>6,71; 75,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 81,62</t>
+          <t>22,76; 84,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,37; 79,88</t>
+          <t>21,22; 78,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 7,9</t>
+          <t>-2,7; 8,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,63</t>
+          <t>-1,58; 8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 14,24</t>
+          <t>2,91; 14,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 0,21</t>
+          <t>-11,97; 0,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 0,79</t>
+          <t>-11,37; 1,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 5,82</t>
+          <t>-6,05; 5,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 2,63</t>
+          <t>-5,32; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 3,43</t>
+          <t>-4,5; 3,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 8,19</t>
+          <t>-0,3; 8,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 52,38</t>
+          <t>-13,63; 53,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 53,65</t>
+          <t>-8,27; 53,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 91,98</t>
+          <t>13,37; 89,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 0,1</t>
+          <t>-27,44; 0,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 2,23</t>
+          <t>-26,12; 3,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 15,59</t>
+          <t>-13,63; 14,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 9,31</t>
+          <t>-16,76; 11,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 12,52</t>
+          <t>-14,37; 13,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 30,3</t>
+          <t>-1,01; 30,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 17,69</t>
+          <t>4,69; 17,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 8,35</t>
+          <t>-3,57; 8,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,12; 25,78</t>
+          <t>13,34; 26,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 13,32</t>
+          <t>-2,03; 13,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 8,26</t>
+          <t>-6,35; 7,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 22,63</t>
+          <t>10,37; 23,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,64</t>
+          <t>3,33; 13,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,58</t>
+          <t>-2,58; 7,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,67; 23,23</t>
+          <t>13,16; 23,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,32; 128,97</t>
+          <t>22,48; 128,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 62,71</t>
+          <t>-18,2; 68,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,37; 185,19</t>
+          <t>68,32; 206,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 49,07</t>
+          <t>-5,63; 48,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 30,73</t>
+          <t>-18,58; 28,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,29; 84,68</t>
+          <t>28,78; 86,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,23; 64,51</t>
+          <t>12,68; 64,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 30,58</t>
+          <t>-10,42; 33,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,67; 111,03</t>
+          <t>49,95; 110,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 7,57</t>
+          <t>-2,87; 8,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 14,39</t>
+          <t>1,21; 14,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,97; 23,14</t>
+          <t>7,91; 23,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 18,61</t>
+          <t>6,01; 18,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 19,31</t>
+          <t>5,61; 19,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,83; 27,04</t>
+          <t>10,78; 26,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,59; 11,92</t>
+          <t>3,02; 11,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 14,83</t>
+          <t>5,1; 14,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,68; 23,66</t>
+          <t>12,62; 23,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 44,3</t>
+          <t>-12,21; 48,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 82,89</t>
+          <t>4,78; 82,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,11; 133,47</t>
+          <t>33,61; 132,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,45; 68,92</t>
+          <t>17,3; 66,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,59; 72,91</t>
+          <t>16,76; 70,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,82; 98,52</t>
+          <t>31,01; 95,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,85; 51,89</t>
+          <t>10,18; 49,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,2; 62,02</t>
+          <t>18,27; 62,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,29; 100,05</t>
+          <t>46,26; 100,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 23,09</t>
+          <t>7,56; 24,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,05; 17,56</t>
+          <t>2,54; 17,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,83; 28,67</t>
+          <t>11,97; 27,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,24; 37,67</t>
+          <t>19,26; 37,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 19,36</t>
+          <t>1,0; 19,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 26,95</t>
+          <t>1,57; 26,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,05; 28,56</t>
+          <t>15,24; 28,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,17; 16,37</t>
+          <t>4,1; 16,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,3; 26,61</t>
+          <t>11,83; 26,38</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>43,5; 245,99</t>
+          <t>46,38; 241,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,03; 174,17</t>
+          <t>17,56; 195,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>78,54; 316,8</t>
+          <t>69,82; 294,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53,61; 153,86</t>
+          <t>55,72; 154,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 76,94</t>
+          <t>3,29; 77,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,56; 102,64</t>
+          <t>7,64; 103,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>64,69; 158,85</t>
+          <t>59,88; 153,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,67; 87,29</t>
+          <t>16,39; 88,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>51,47; 147,58</t>
+          <t>51,45; 145,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,7; 21,29</t>
+          <t>6,92; 21,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 12,54</t>
+          <t>-1,42; 12,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,18; 32,47</t>
+          <t>18,25; 32,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,12; 18,31</t>
+          <t>1,84; 17,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 7,39</t>
+          <t>-8,96; 7,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,8; 20,9</t>
+          <t>6,46; 20,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,53</t>
+          <t>6,88; 17,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,41</t>
+          <t>-2,75; 7,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,33; 24,5</t>
+          <t>14,32; 24,35</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,96; 140,18</t>
+          <t>29,37; 143,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 82,57</t>
+          <t>-6,98; 85,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>82,0; 216,16</t>
+          <t>79,56; 219,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,55; 59,54</t>
+          <t>4,72; 55,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 23,75</t>
+          <t>-23,06; 22,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>13,88; 67,32</t>
+          <t>16,28; 66,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,77; 71,17</t>
+          <t>23,45; 72,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 29,57</t>
+          <t>-9,36; 32,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>47,37; 100,32</t>
+          <t>47,55; 100,82</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,93; 12,56</t>
+          <t>2,4; 12,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 6,73</t>
+          <t>-2,01; 6,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16,08; 26,61</t>
+          <t>15,73; 26,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,75; 15,14</t>
+          <t>4,34; 15,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 8,41</t>
+          <t>-2,22; 7,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>30,56; 51,87</t>
+          <t>30,14; 50,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,77; 12,45</t>
+          <t>4,83; 12,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,13</t>
+          <t>-1,19; 6,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>25,75; 41,67</t>
+          <t>25,61; 42,34</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>12,85; 72,71</t>
+          <t>11,65; 73,61</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 38,0</t>
+          <t>-9,77; 39,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>72,1; 151,1</t>
+          <t>73,68; 156,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,98; 56,32</t>
+          <t>13,22; 56,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 31,15</t>
+          <t>-7,06; 27,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>95,87; 181,3</t>
+          <t>94,07; 184,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,12; 55,32</t>
+          <t>19,38; 54,87</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 27,06</t>
+          <t>-4,56; 26,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>99,71; 176,52</t>
+          <t>97,9; 175,69</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -1,71</t>
+          <t>-10,26; -1,42</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,92</t>
+          <t>-2,88; 6,05</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 5,39</t>
+          <t>-6,17; 5,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -2,57</t>
+          <t>-12,07; -2,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 3,01</t>
+          <t>-6,72; 3,22</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 5,12</t>
+          <t>-4,9; 4,74</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -3,05</t>
+          <t>-9,31; -3,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,2</t>
+          <t>-3,37; 3,03</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,74</t>
+          <t>-4,02; 3,88</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-37,28; -6,79</t>
+          <t>-37,24; -6,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 25,01</t>
+          <t>-11,1; 26,36</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 22,82</t>
+          <t>-22,7; 23,47</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -7,62</t>
+          <t>-30,48; -7,65</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 8,93</t>
+          <t>-16,88; 9,46</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 14,78</t>
+          <t>-12,24; 13,62</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,78; -10,57</t>
+          <t>-28,25; -10,19</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 10,81</t>
+          <t>-10,31; 10,29</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 12,65</t>
+          <t>-12,2; 13,19</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,62</t>
+          <t>2,24; 6,59</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,09</t>
+          <t>2,04; 6,13</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,43</t>
+          <t>10,72; 15,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,61</t>
+          <t>2,85; 7,43</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,89</t>
+          <t>0,1; 4,94</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,1</t>
+          <t>11,57; 19,69</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,45</t>
+          <t>3,24; 6,49</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,98</t>
+          <t>1,91; 4,94</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>12,12; 17,73</t>
+          <t>12,0; 16,81</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>11,76; 35,34</t>
+          <t>10,63; 34,53</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>9,84; 32,47</t>
+          <t>9,23; 32,23</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>51,91; 82,16</t>
+          <t>51,22; 82,18</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,63; 23,28</t>
+          <t>8,34; 23,05</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,34; 15,19</t>
+          <t>0,22; 15,09</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>33,02; 58,52</t>
+          <t>33,23; 58,64</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>12,23; 25,14</t>
+          <t>11,78; 24,8</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,71; 19,34</t>
+          <t>6,93; 19,13</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>44,0; 66,75</t>
+          <t>43,75; 63,74</t>
         </is>
       </c>
     </row>
